--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200317.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200317.xlsx
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9470" uniqueCount="3303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9470" uniqueCount="3304">
   <si>
     <t>序号</t>
   </si>
@@ -10321,6 +10321,9 @@
   </si>
   <si>
     <t>http://wsjkw.gd.gov.cn/xxgzbdfk/yqtb/content/post_2934532.html</t>
+  </si>
+  <si>
+    <t>区县级</t>
   </si>
 </sst>
 </file>
@@ -10762,7 +10765,7 @@
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11968,7 +11971,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C22" s="17">
         <v>43907</v>
@@ -12018,7 +12021,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C23" s="17">
         <v>43907</v>
@@ -12071,7 +12074,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C24" s="17">
         <v>43907</v>
@@ -12121,7 +12124,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C25" s="17">
         <v>43907</v>
@@ -12171,7 +12174,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C26" s="17">
         <v>43907</v>
@@ -12221,7 +12224,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C27" s="17">
         <v>43907</v>
@@ -12274,7 +12277,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>40</v>
+        <v>3303</v>
       </c>
       <c r="C28" s="17">
         <v>43907</v>
